--- a/Tablas y Procesos (version 1).xlsx
+++ b/Tablas y Procesos (version 1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUMORENO\Desktop\Guia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF497441-8B57-451D-99F1-A3FD620535DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372EBE66-1767-4764-A372-AEDE7FFD57CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablas " sheetId="1" r:id="rId1"/>
@@ -21,8 +21,10 @@
     <sheet name="CONSULTAS SQL" sheetId="9" r:id="rId6"/>
     <sheet name="Programas Proceso" sheetId="3" r:id="rId7"/>
     <sheet name="DEBUG" sheetId="4" r:id="rId8"/>
-    <sheet name="curiosidades" sheetId="10" r:id="rId9"/>
-    <sheet name="Transferencias" sheetId="6" r:id="rId10"/>
+    <sheet name="DEBUG2" sheetId="13" r:id="rId9"/>
+    <sheet name="PGMS" sheetId="14" r:id="rId10"/>
+    <sheet name="curiosidades" sheetId="10" r:id="rId11"/>
+    <sheet name="Transferencias" sheetId="6" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="367">
   <si>
     <t>SISTEMAS</t>
   </si>
@@ -799,9 +801,6 @@
     <t>MIRAR LLENADO DE ARCHIVOS EN UN DEBUG</t>
   </si>
   <si>
-    <t>upddta --&gt; MIRAR LLENADO DE ARCHIVOS EN UN DEBUG</t>
-  </si>
-  <si>
     <t>EVAL --&gt; mirar contenido de la variable</t>
   </si>
   <si>
@@ -866,9 +865,6 @@
   </si>
   <si>
     <t>Ambientar</t>
-  </si>
-  <si>
-    <t>CALL BASEDOS/CAC0700S</t>
   </si>
   <si>
     <t>SHIFT-ESC-F2</t>
@@ -1048,6 +1044,122 @@
   </si>
   <si>
     <t>CPYF FROMFILE(SWITCH/SWFBAS01) TOFILE(LMORENO/SWFBAS01BK) MBROPT (*REPLACE)</t>
+  </si>
+  <si>
+    <t>upddta (tabla) --&gt; MIRAR LLENADO DE ARCHIVOS EN UN DEBUG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wrkobjlck --&gt; mirar quien o que proceso tiene el archivo ocupado</t>
+  </si>
+  <si>
+    <t>CALL BASEDOS/CAC0700S --&gt;AMB</t>
+  </si>
+  <si>
+    <t>SHIFT ESC 6 --- R --&gt; Dar respuesta a mensaje</t>
+  </si>
+  <si>
+    <t>Pasos ordenados</t>
+  </si>
+  <si>
+    <t>2. Limpiar los archivos de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Ambientar  </t>
+  </si>
+  <si>
+    <t>CLRPFM FILE(SWITCH/SWFBAS01) </t>
+  </si>
+  <si>
+    <t>3.  Redenominar los archivos con las fechas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QDDSSRC </t>
+  </si>
+  <si>
+    <t>Mirar en todos</t>
+  </si>
+  <si>
+    <t>opc 3 miembros y 25 shift esc 1</t>
+  </si>
+  <si>
+    <t>DEBUG</t>
+  </si>
+  <si>
+    <t>STRDBG</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>Al hacer call el se para en la linea marcada</t>
+  </si>
+  <si>
+    <t>Cuando la linea este marcada nos salimos con F3</t>
+  </si>
+  <si>
+    <t>Se hace el CALL</t>
+  </si>
+  <si>
+    <t>AMBIENTACIÓN</t>
+  </si>
+  <si>
+    <t>HOJA F</t>
+  </si>
+  <si>
+    <t>LEE ARCHIVOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LECTURA IF
+ESCRITURA O
+ACTUALIZACIÓN UP
+TODAS UF A
+</t>
+  </si>
+  <si>
+    <t>RENAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENAME (AER0110A:CARLECTU)
+</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>PARA POSICIONARSE AL INICIO</t>
+  </si>
+  <si>
+    <t>CARLECTU</t>
+  </si>
+  <si>
+    <t>SHIF F4 BUSCA VARIABLE</t>
+  </si>
+  <si>
+    <t>POSICIONAR PUNTERO</t>
+  </si>
+  <si>
+    <t>VUELVO AL PRIMER PROGRAMA SHIF + F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F CAMPO </t>
+  </si>
+  <si>
+    <t>PARA BUSCAR EN EL PROGRAMA UN CAMPO</t>
+  </si>
+  <si>
+    <t>Hacen consulta a un archivo</t>
+  </si>
+  <si>
+    <t>Shift -esc-40-2</t>
+  </si>
+  <si>
+    <t>Terminar un proceso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">release V7R2M0 </t>
+  </si>
+  <si>
+    <t>para validar version en maquina de destino con savf</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1156,6 +1268,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1338,7 +1462,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1410,6 +1534,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1560,6 +1701,676 @@
         <a:xfrm>
           <a:off x="0" y="3327400"/>
           <a:ext cx="3367889" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332476</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18995726-E2A4-49A3-B84D-FAF82BF527CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="952500"/>
+          <a:ext cx="7190476" cy="3876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485524</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>66619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242F9C6E-1AC2-BE14-1954-020495C35A2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5143500"/>
+          <a:ext cx="2009524" cy="447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304571</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D1AA99B-0FBB-C0F6-D871-C7F07D97323E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5905500"/>
+          <a:ext cx="1828571" cy="1047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361524</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A293541-043A-D28E-18A2-B8578C2F74E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7829550"/>
+          <a:ext cx="3409524" cy="523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399238</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>56786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3745D4E-DC9E-DDFC-41A3-3675B407B6F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8572500"/>
+          <a:ext cx="6495238" cy="2914286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714374</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1650BE8-D958-B4B7-9B64-8E6B342C86D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11811000"/>
+          <a:ext cx="2238374" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85429</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>171357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4D678F-C7E8-BF61-CC5D-2685B2DB1D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13525500"/>
+          <a:ext cx="2371429" cy="742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552190</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB03307-2C41-5B33-5F0C-C95C9C2A974B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14478000"/>
+          <a:ext cx="2076190" cy="447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695144</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5298A81C-8D10-710F-90C9-812ED6C207CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="14478000"/>
+          <a:ext cx="1447619" cy="447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333143</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>85643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCE36D7-08EC-A286-2C41-D6C436F45C4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15240000"/>
+          <a:ext cx="1857143" cy="657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>497245</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3605634F-2617-0B64-E508-C872F8AC161C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16192501"/>
+          <a:ext cx="5069245" cy="1619250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504001</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>56960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E30ED3E-F77B-EC68-19C5-8C94D30C00C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="18345150"/>
+          <a:ext cx="6590476" cy="1523810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>370571</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>114062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F35D0DB-E79E-C19B-03E6-F79C51AFDDD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20307300"/>
+          <a:ext cx="7228571" cy="1904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1761905</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B9CD47D-4913-813A-9AC5-1B93931ED076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="1761905" cy="885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18808</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152238</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AC12BD-45CE-C499-47C0-6D4508828551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2095500"/>
+          <a:ext cx="1933333" cy="1295238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1836,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2257,7 +3068,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>134</v>
@@ -2279,7 +3090,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>139</v>
@@ -2356,7 +3167,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>167</v>
@@ -2492,6 +3303,95 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069D8D91-E8A5-47CE-A9ED-2F6F2FA71464}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.7265625" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>350</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E08EDC-446E-48BD-B6A9-A8112FECA9AA}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="91.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41577EE4-C3E7-4AB1-9E47-A79CB80487DF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -2557,8 +3457,8 @@
   </sheetPr>
   <dimension ref="A1:I413"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2571,10 +3471,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2607,109 +3507,138 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B18" t="s">
-        <v>325</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>341</v>
+      </c>
+      <c r="B20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>365</v>
+      </c>
+      <c r="B22" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
@@ -5228,140 +6157,142 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="65.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
     <col min="3" max="3" width="24.54296875" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
-    <col min="5" max="5" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="23.54296875" customWidth="1"/>
+    <col min="5" max="5" width="56.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B2" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>279</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19" t="s">
-        <v>280</v>
-      </c>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="19"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23"/>
@@ -5369,22 +6300,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="25" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="19" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="19" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -5392,22 +6323,53 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="41" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="42" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="43" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>336</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B35" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5429,21 +6391,21 @@
     <col min="1" max="1" width="17.54296875" customWidth="1"/>
     <col min="2" max="2" width="46.1796875" customWidth="1"/>
     <col min="3" max="3" width="20.81640625" customWidth="1"/>
-    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="9" max="9" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C1" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>288</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>290</v>
       </c>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
@@ -5456,7 +6418,7 @@
     </row>
     <row r="2" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D2" s="32"/>
       <c r="E2" s="33"/>
@@ -5503,15 +6465,15 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="I8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -6099,8 +7061,8 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6111,10 +7073,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -6129,92 +7091,93 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>313</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C16" s="44"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -6225,29 +7188,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E08EDC-446E-48BD-B6A9-A8112FECA9AA}">
-  <sheetPr>
-    <tabColor theme="9" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9650E152-3B02-43A3-9B17-BCBFE5FE8CA7}">
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="91.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B1" t="s">
-        <v>243</v>
+      <c r="B1" s="45" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>360</v>
+      </c>
+      <c r="B118" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>